--- a/Data_Raw/Change_Murder_Rate_2020_2022_ABP.xlsx
+++ b/Data_Raw/Change_Murder_Rate_2020_2022_ABP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrubval/Desktop/Brennan Center for Justice/Crime Data Projects/Crime_Trends_and_Rates/Offenses-Known-to-LE-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrubval/Desktop/2002_2023_US_Crime_Data/Data_Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0C9C1-9F51-574C-A96B-85B52076FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484A2C6-D67D-4B4A-9B99-8985B23D5B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="760" windowWidth="28040" windowHeight="17120" xr2:uid="{D2F31D9A-C012-4E47-A6C9-8616A3168048}"/>
+    <workbookView xWindow="3240" yWindow="760" windowWidth="27000" windowHeight="17120" xr2:uid="{D2F31D9A-C012-4E47-A6C9-8616A3168048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Atlanta, Georgia</t>
   </si>
   <si>
-    <t>Murder_Rate_2020</t>
+    <t>Murder_Rate_2022</t>
   </si>
 </sst>
 </file>
@@ -418,12 +418,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
